--- a/CS1A.xlsx
+++ b/CS1A.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -277,6 +275,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -291,12 +295,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,47 +609,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -743,10 +741,10 @@
       <c r="E8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="9"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -768,10 +766,10 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -785,10 +783,10 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
@@ -807,10 +805,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="7"/>
     </row>
   </sheetData>
@@ -827,28 +825,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/CS1A.xlsx
+++ b/CS1A.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>DHA SUFFA University</t>
   </si>
@@ -132,6 +132,11 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CS102 L [Sec A-2]
+Munazza Kanwal
+GF-054</t>
   </si>
 </sst>
 </file>
@@ -600,7 +605,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G11" sqref="G11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +811,7 @@
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7"/>
